--- a/data/trans_bre/P19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 14,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 8,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 8,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 15,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 38,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 20,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 18,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; 25,61</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 11,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 13,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 11,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 8,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 38,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 42,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 30,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 14,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 7,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 12,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 8,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 26,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 51,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 33,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 14,53</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 9,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,1; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 8,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 17,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 41,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,24; 59,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 22,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 41,12</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,59; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 9,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 10,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,43; 12,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,38; 40,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 33,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 20,81</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 3,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 10,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 6,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; 2,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; 23,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 83,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 20,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,05; 4,48</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 7,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 5,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 15,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 25,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 13,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 8,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 15,63</t>
+          <t>-7,13; 16,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 25,61</t>
+          <t>-9,62; 27,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,91</t>
+          <t>-3,3; 16,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 14,67</t>
+          <t>-5,03; 28,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 8,28</t>
+          <t>-2,89; 7,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 14,53</t>
+          <t>-4,47; 14,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 17,62</t>
+          <t>-4,55; 41,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 41,12</t>
+          <t>-7,08; 247,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,15%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 10,05</t>
+          <t>-0,07; 10,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 20,81</t>
+          <t>-0,18; 20,81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-30,87%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,87</t>
+          <t>-9,12; 5,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 10,65</t>
+          <t>-0,97; 12,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,25</t>
+          <t>-10,32; 7,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 2,06</t>
+          <t>-37,97; 4,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 23,21</t>
+          <t>-35,9; 33,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 83,46</t>
+          <t>-4,94; 93,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 20,12</t>
+          <t>-25,41; 22,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 4,48</t>
+          <t>-73,87; 9,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-10,71; 7,03</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 12,75</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 10,9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 4,93</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-46,25; 56,95</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 132,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; 43,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 12,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,99; 4,32</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,25; 7,22</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,41; 5,22</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,51</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 14,46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-3,12; 15,26</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,37; 25,7</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-0,96; 13,18</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 8,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-11,57; 32,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 14,09</t>
+          <t>-0,07; 14,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 8,46</t>
+          <t>-6,25; 8,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 8,84</t>
+          <t>-6,79; 8,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 16,8</t>
+          <t>-5,56; 16,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 38,29</t>
+          <t>-0,17; 40,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 20,25</t>
+          <t>-12,92; 20,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 18,04</t>
+          <t>-11,92; 16,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 27,53</t>
+          <t>-7,77; 27,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 11,45</t>
+          <t>-0,54; 10,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 13,44</t>
+          <t>0,34; 12,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,17</t>
+          <t>-1,73; 11,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 16,99</t>
+          <t>-3,49; 18,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 38,85</t>
+          <t>-2,11; 36,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 42,56</t>
+          <t>1,25; 39,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 30,21</t>
+          <t>-4,14; 31,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 28,61</t>
+          <t>-5,17; 32,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,15</t>
+          <t>-4,12; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,58</t>
+          <t>2,21; 13,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 12,49</t>
+          <t>-0,06; 12,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,94</t>
+          <t>-3,24; 8,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 26,31</t>
+          <t>-12,59; 25,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 51,38</t>
+          <t>6,6; 49,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 33,93</t>
+          <t>-0,09; 32,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 14,0</t>
+          <t>-5,16; 14,48</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 9,1</t>
+          <t>-3,46; 9,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 13,89</t>
+          <t>2,06; 13,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,83</t>
+          <t>-4,5; 7,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 41,81</t>
+          <t>-4,63; 40,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 41,77</t>
+          <t>-11,68; 41,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 59,21</t>
+          <t>6,46; 55,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 22,73</t>
+          <t>-9,76; 19,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 247,8</t>
+          <t>-7,71; 208,48</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 2,71</t>
+          <t>-11,77; 2,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,0</t>
+          <t>-4,74; 8,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 10,98</t>
+          <t>-4,12; 11,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 10,01</t>
+          <t>-0,63; 9,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 12,54</t>
+          <t>-39,63; 10,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 40,78</t>
+          <t>-16,14; 39,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 33,47</t>
+          <t>-10,0; 34,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 20,81</t>
+          <t>-1,13; 19,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 5,91</t>
+          <t>-9,2; 5,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 12,7</t>
+          <t>-1,35; 12,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 7,08</t>
+          <t>-9,91; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 4,52</t>
+          <t>-37,73; 4,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 33,22</t>
+          <t>-35,46; 31,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 93,13</t>
+          <t>-7,09; 96,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 22,48</t>
+          <t>-24,66; 25,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 9,69</t>
+          <t>-72,98; 10,11</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 7,03</t>
+          <t>-10,67; 6,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 12,75</t>
+          <t>-1,62; 12,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 10,9</t>
+          <t>-7,44; 12,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,93</t>
+          <t>-5,89; 6,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 56,95</t>
+          <t>-46,01; 53,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 132,26</t>
+          <t>-9,66; 128,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 43,59</t>
+          <t>-21,06; 49,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 12,94</t>
+          <t>-13,07; 16,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,32</t>
+          <t>-0,91; 4,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,22</t>
+          <t>2,23; 7,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,22</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 14,46</t>
+          <t>-6,26; 13,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 15,26</t>
+          <t>-2,91; 15,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 25,7</t>
+          <t>7,15; 25,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 13,18</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 32,21</t>
+          <t>-11,37; 29,22</t>
         </is>
       </c>
     </row>
